--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polaris/Documents/5/BASES DE DATOS/Proyecto1-DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B175144E-F4BC-2F4F-99E5-7F9158C56627}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F63DFA2-F2AD-E94B-A968-2CF732637526}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{49E1517D-1A5E-3E4D-B03C-914C5256EBA0}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A2:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q19"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>0.56652948292500005</v>
+        <v>0.54456181529600001</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q2">
         <v>0.54456181529576397</v>
@@ -503,10 +503,10 @@
         <v>2</v>
       </c>
       <c r="M3" s="1">
-        <v>0.60698685515799999</v>
+        <v>0.98326255602699997</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="Q3">
         <v>0.98326255602669999</v>
@@ -535,10 +535,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>0.61598956425399998</v>
+        <v>1.2275050749900001</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Q4">
         <v>1.2275050749859699</v>
@@ -567,10 +567,10 @@
         <v>3</v>
       </c>
       <c r="M5" s="1">
-        <v>0.67977686904400003</v>
+        <v>1.5959969644700001</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q5">
         <v>1.59599696447037</v>
@@ -599,10 +599,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="1">
-        <v>1.20505604926</v>
+        <v>1.6567327889100001</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q6">
         <v>1.6567327889102099</v>
@@ -631,10 +631,10 @@
         <v>6</v>
       </c>
       <c r="M7" s="1">
-        <v>1.26554458756</v>
+        <v>1.78777485085</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q7">
         <v>1.7877748508535001</v>
@@ -663,10 +663,10 @@
         <v>5</v>
       </c>
       <c r="M8" s="1">
-        <v>1.28063665106</v>
+        <v>1.86196104536</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q8">
         <v>1.86196104536444</v>
@@ -695,10 +695,10 @@
         <v>8</v>
       </c>
       <c r="M9" s="1">
-        <v>4.2138021276700002</v>
+        <v>1.9666446315499999</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q9">
         <v>1.96664463155049</v>
@@ -727,10 +727,10 @@
         <v>14</v>
       </c>
       <c r="M10" s="1">
-        <v>4.3544647273199999</v>
+        <v>2.08806316065</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q10">
         <v>2.0880631606537001</v>
@@ -759,10 +759,10 @@
         <v>9</v>
       </c>
       <c r="M11" s="1">
-        <v>4.40794666701</v>
+        <v>2.11370894608</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q11">
         <v>2.11370894607641</v>
@@ -791,10 +791,10 @@
         <v>10</v>
       </c>
       <c r="M12" s="1">
-        <v>4.6800885639600001</v>
+        <v>2.18426750252</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q12">
         <v>2.1842675025181499</v>
@@ -823,10 +823,10 @@
         <v>7</v>
       </c>
       <c r="M13" s="1">
-        <v>4.9432135395200003</v>
+        <v>7.1871057585799996</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q13">
         <v>7.1871057585755196</v>
@@ -855,10 +855,10 @@
         <v>13</v>
       </c>
       <c r="M14" s="1">
-        <v>5.1483390344700002</v>
+        <v>7.2728145179399997</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q14">
         <v>7.2728145179359203</v>
@@ -887,10 +887,10 @@
         <v>11</v>
       </c>
       <c r="M15" s="1">
-        <v>5.5555555555599998</v>
+        <v>7.6378779685099998</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q15">
         <v>7.6378779685129397</v>
@@ -919,10 +919,10 @@
         <v>12</v>
       </c>
       <c r="M16" s="1">
-        <v>5.7669727790199996</v>
+        <v>13.5398414813</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q16">
         <v>13.539841481291001</v>
@@ -951,10 +951,10 @@
         <v>15</v>
       </c>
       <c r="M17" s="1">
-        <v>7.4981938869800002</v>
+        <v>14.941926915</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Q17">
         <v>14.9419269150227</v>
@@ -983,10 +983,10 @@
         <v>17</v>
       </c>
       <c r="M18" s="1">
-        <v>9.3607460114199998</v>
+        <v>15.1635426225</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Q18">
         <v>15.1635426225229</v>
@@ -1006,7 +1006,7 @@
         <v>16.901792948000001</v>
       </c>
       <c r="M19" s="1">
-        <v>16.901792948000001</v>
+        <v>16.246411399399999</v>
       </c>
       <c r="Q19">
         <v>16.2464113994332</v>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>79.051635900191002</v>
+        <v>99.99999999993301</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
